--- a/Dataverse/SettingType/ya_SettingType (1632560801457).xlsx
+++ b/Dataverse/SettingType/ya_SettingType (1632560801457).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\y\Documents\GitHub\PowerPlatform-PowerApps-AppFramework\Dataverse\SettingType\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB9494F-117C-43AA-A058-43216CDE80C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E24F06-DCBD-48B0-8E59-6EDFFB45C549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,108 +21,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>所有者 (検索)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>状態</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UTC 変換タイム ゾーン コード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>インポート シーケンス番号</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ステータス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タイム ゾーン規則のバージョン番号</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>バージョン番号</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レコード作成日</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>作成日</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>作成者 (検索)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>作成者 (代理) (検索)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>修正日</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>修正者 (検索)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>修正者 (代理) (検索)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>所属部署 (検索)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>所有チーム (検索)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SettingType</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>作成者</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>作成者 (代理)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>修正者</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>修正者 (代理)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>所属部署</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>所有チーム</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>所有者</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>列1</t>
   </si>
   <si>
@@ -175,10 +79,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\Thh:mm:ss\Z"/>
-  </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,14 +96,6 @@
     </font>
     <font>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
@@ -229,189 +122,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="游ゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="游ゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="游ゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="游ゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\Thh:mm:ss\Z"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="游ゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="游ゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\Thh:mm:ss\Z"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\Thh:mm:ss\Z"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="游ゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -429,34 +148,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="AxTable1" displayName="AxTable1" ref="A1:Y7" totalsRowShown="0">
-  <autoFilter ref="A1:Y7" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="25">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Key" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="所有者 (検索)" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="状態" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="UTC 変換タイム ゾーン コード"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="インポート シーケンス番号"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="ステータス" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="タイム ゾーン規則のバージョン番号"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="バージョン番号"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="レコード作成日" dataDxfId="16"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="作成日" dataDxfId="15"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="作成者 (検索)" dataDxfId="14"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="作成者 (代理) (検索)" dataDxfId="13"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="修正日" dataDxfId="12"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="修正者 (検索)" dataDxfId="11"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="修正者 (代理) (検索)" dataDxfId="10"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="所属部署 (検索)" dataDxfId="9"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="所有チーム (検索)" dataDxfId="8"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="SettingType" dataDxfId="7"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="作成者" dataDxfId="6"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="作成者 (代理)" dataDxfId="5"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="修正者" dataDxfId="4"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="修正者 (代理)" dataDxfId="3"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="所属部署" dataDxfId="2"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="所有チーム" dataDxfId="1"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="所有者" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="SettingType" displayName="SettingType" ref="A1:A7" totalsRowShown="0">
+  <autoFilter ref="A1:A7" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Key" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -780,7 +475,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="1" width="350" row="4">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="4">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -805,263 +500,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y7"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.625" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="40.25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="40.25" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="40.125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="40.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1073,7 +554,7 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{F7C9EE02-42E1-4005-9D12-6889AFFD525C}">
       <x15:webExtensions xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
         <x15:webExtension appRef="{5c36b626-0a0f-454d-bae6-407cb2cbd657}">
-          <xm:f>AxTable1[#All]</xm:f>
+          <xm:f>SettingType[#All]</xm:f>
         </x15:webExtension>
         <x15:webExtension appRef="{6A40CF85-CE36-4594-8072-A11E63905FC3}">
           <xm:f>DataCacheKeyTable[#All]</xm:f>
@@ -1099,54 +580,54 @@
   <sheetData>
     <row r="1" spans="1:4" ht="24" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D4" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D5" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D6" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D7" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D8" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
